--- a/HP/zj/202101.xlsx
+++ b/HP/zj/202101.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="10583" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="10567" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="旅差费" sheetId="1" r:id="rId2"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>2021年01月份旅差费</t>
   </si>
@@ -41,16 +41,61 @@
     <t>备注</t>
   </si>
   <si>
+    <t>1620123161078</t>
+  </si>
+  <si>
     <t>2021.01.04下午</t>
   </si>
   <si>
-    <t>公司-化州桔城路-公司</t>
+    <t>公司-化州鉴江开发区桔城北路家福小区-公司</t>
+  </si>
+  <si>
+    <t>苏培杰</t>
+  </si>
+  <si>
+    <t>36*2</t>
   </si>
   <si>
     <t>自驾小汽车</t>
   </si>
   <si>
-    <t>更换硬盘（淘宝店）</t>
+    <t>更换硬盘和内存（宁美国度）</t>
+  </si>
+  <si>
+    <t>WO-012640938</t>
+  </si>
+  <si>
+    <t>2021.01.06下午</t>
+  </si>
+  <si>
+    <t>公司-高州市镇江中学-公司</t>
+  </si>
+  <si>
+    <t>赖女士</t>
+  </si>
+  <si>
+    <t>44*2</t>
+  </si>
+  <si>
+    <t>HP PC 更换主板</t>
+  </si>
+  <si>
+    <t>2905308;2905272;2905374</t>
+  </si>
+  <si>
+    <t>2021.01.08</t>
+  </si>
+  <si>
+    <t>公司-油校西城区-公司</t>
+  </si>
+  <si>
+    <t>黄老师</t>
+  </si>
+  <si>
+    <t>17*2</t>
+  </si>
+  <si>
+    <t>送5台清华同方PC回</t>
   </si>
   <si>
     <t>、</t>
@@ -75,7 +120,7 @@
     <numFmt numFmtId="184" formatCode="@"/>
     <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="20">
+  <fonts count="38" x14ac:knownFonts="38">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -198,11 +243,126 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <color rgb="FF9C0006"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF006100"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF9C6500"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +555,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4DFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92CDDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0504D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -685,29 +1031,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA7BFDE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf/>
-    <xf/>
-    <xf/>
-    <xf/>
-    <xf/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="1"/>
-    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="2"/>
-    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="3"/>
-    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="4"/>
-    <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="5"/>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -882,14 +1405,174 @@
     <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="34" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="36" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="38" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="41" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="42" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="43" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="44" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="45" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="46" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="47" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="48" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="49" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="50" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="51" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="52" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="53" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="54" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="55" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="56" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="57" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="58" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="59" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="60" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="61" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="62" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="63" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="185" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -905,7 +1588,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -953,44 +1636,82 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11">
-        <v>1</v>
+      <c r="B6" s="118" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="119" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H6" s="11">
+        <v>72</v>
+      </c>
+      <c r="I6" s="115" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11">
+        <v>88</v>
+      </c>
+      <c r="I7" s="116" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="11">
+        <v>34</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="11"/>
@@ -1154,7 +1875,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -1166,11 +1887,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202101.xlsx
+++ b/HP/zj/202101.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="10567" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="10552" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="旅差费" sheetId="1" r:id="rId2"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>2021年01月份旅差费</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>送5台清华同方PC回</t>
+  </si>
+  <si>
+    <t>WO-012674061</t>
+  </si>
+  <si>
+    <t>2021.01.11</t>
+  </si>
+  <si>
+    <t>公司-羊角镇大同小学-公司</t>
+  </si>
+  <si>
+    <t>徐主任</t>
+  </si>
+  <si>
+    <t>19*2</t>
+  </si>
+  <si>
+    <t>HP台式机换主板，（故障为电源（不加电））</t>
   </si>
   <si>
     <t>、</t>
@@ -742,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1033,6 +1051,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1183,43 +1216,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,10 +1411,16 @@
     <xf numFmtId="180" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0"/>
     <xf numFmtId="0" fontId="19" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,10 +1430,10 @@
     <xf numFmtId="0" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1433,34 +1442,34 @@
     <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" applyFont="1" fillId="36" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" applyFont="1" fillId="38" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="36" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="38" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
@@ -1553,20 +1562,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1588,7 +1588,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1636,28 +1636,28 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="68" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="11">
-        <v>72</v>
-      </c>
-      <c r="I6" s="115" t="s">
+        <v>72.0</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1681,9 +1681,9 @@
         <v>14</v>
       </c>
       <c r="H7" s="11">
-        <v>88</v>
-      </c>
-      <c r="I7" s="116" t="s">
+        <v>88.0</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1707,21 +1707,37 @@
         <v>14</v>
       </c>
       <c r="H8" s="11">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="11">
+        <v>38</v>
+      </c>
+      <c r="I9" s="118" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="14"/>
@@ -1875,7 +1891,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -1887,11 +1903,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>194</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202101.xlsx
+++ b/HP/zj/202101.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="10552" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="10536" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="旅差费" sheetId="1" r:id="rId2"/>
@@ -113,7 +113,7 @@
     <t>19*2</t>
   </si>
   <si>
-    <t>HP台式机换主板，（故障为电源（不加电））</t>
+    <t>HP台式机换主板，（故障为电源,把主机取回公司（不加电））</t>
   </si>
   <si>
     <t>、</t>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="184" formatCode="@"/>
     <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="38">
+  <fonts count="37" x14ac:knownFonts="37">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -374,11 +374,6 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -760,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1186,43 +1181,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,12 +1526,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1587,8 +1546,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1713,17 +1672,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="13" t="s">
@@ -1733,9 +1692,9 @@
         <v>14</v>
       </c>
       <c r="H9" s="11">
-        <v>38</v>
-      </c>
-      <c r="I9" s="118" t="s">
+        <v>38.0</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>33</v>
       </c>
     </row>

--- a/HP/zj/202101.xlsx
+++ b/HP/zj/202101.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="10536" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="10521" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="旅差费" sheetId="1" r:id="rId2"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>2021年01月份旅差费</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>HP台式机换主板，（故障为电源,把主机取回公司（不加电））</t>
+  </si>
+  <si>
+    <t>无单</t>
+  </si>
+  <si>
+    <t>2021.01.12</t>
+  </si>
+  <si>
+    <t>HP台式机换主板，（故障为电源,把主机取回公司（不加电））;电源换好后送回大同小学。</t>
   </si>
   <si>
     <t>、</t>
@@ -138,7 +147,7 @@
     <numFmt numFmtId="184" formatCode="@"/>
     <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="37">
+  <fonts count="38" x14ac:knownFonts="38">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -374,6 +383,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -755,7 +769,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1181,13 +1195,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,6 +1554,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1547,7 +1579,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1698,15 +1730,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
+    <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
@@ -1850,7 +1898,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -1862,11 +1910,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>232</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202101.xlsx
+++ b/HP/zj/202101.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="10521" activeTab="0" tabRatio="618"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="10506" activeTab="0" tabRatio="618"/>
   </bookViews>
   <sheets>
     <sheet name="旅差费" sheetId="1" r:id="rId2"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>2021年01月份旅差费</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>HP台式机换主板，（故障为电源,把主机取回公司（不加电））;电源换好后送回大同小学。</t>
+  </si>
+  <si>
+    <t>2021.01.21下午</t>
+  </si>
+  <si>
+    <t>公司-开发区瑞宝花园-公司</t>
+  </si>
+  <si>
+    <t>张楚红</t>
+  </si>
+  <si>
+    <t>7*2</t>
+  </si>
+  <si>
+    <t>下雨</t>
   </si>
   <si>
     <t>、</t>
@@ -1556,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="183" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1579,7 +1594,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1734,7 +1749,7 @@
       <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1758,13 +1773,27 @@
     </row>
     <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+      <c r="C11" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="11">
+        <v>14</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="17"/>
@@ -1898,7 +1927,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -1910,11 +1939,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202101.xlsx
+++ b/HP/zj/202101.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>2021年01月份旅差费</t>
   </si>
@@ -125,6 +125,9 @@
     <t>HP台式机换主板，（故障为电源,把主机取回公司（不加电））;电源换好后送回大同小学。</t>
   </si>
   <si>
+    <t>WO-012785829</t>
+  </si>
+  <si>
     <t>2021.01.21下午</t>
   </si>
   <si>
@@ -138,6 +141,24 @@
   </si>
   <si>
     <t>下雨</t>
+  </si>
+  <si>
+    <t>WO-012827869</t>
+  </si>
+  <si>
+    <t>2021.01.26上午</t>
+  </si>
+  <si>
+    <t>公司-高州市潘州街道沙河南二区57号-公司</t>
+  </si>
+  <si>
+    <t>卓开民</t>
+  </si>
+  <si>
+    <t>37*2</t>
+  </si>
+  <si>
+    <t>HP打印机更换显影</t>
   </si>
   <si>
     <t>、</t>
@@ -1571,7 +1592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1593,8 +1614,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1772,38 +1793,56 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14"/>
-      <c r="C11" s="117" t="s">
+      <c r="B11" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="C11" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
+      <c r="H12" s="11">
+        <v>74</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
@@ -1927,7 +1966,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -1939,11 +1978,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>284</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202101.xlsx
+++ b/HP/zj/202101.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>2021年01月份旅差费</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>HP打印机更换显影</t>
+  </si>
+  <si>
+    <t>CIP_MMDC800600</t>
+  </si>
+  <si>
+    <t>2021.01.27</t>
+  </si>
+  <si>
+    <t>公司-化州中垌镇高峰汉堂山</t>
+  </si>
+  <si>
+    <t>余国丽</t>
+  </si>
+  <si>
+    <t>76*2</t>
+  </si>
+  <si>
+    <t>HP打印机更换墨盒</t>
   </si>
   <si>
     <t>、</t>
@@ -1614,8 +1632,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1828,7 +1846,7 @@
       <c r="D12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -1838,21 +1856,37 @@
         <v>14</v>
       </c>
       <c r="H12" s="11">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="B13" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>152</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="14"/>
@@ -1966,7 +2000,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -1978,11 +2012,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>358</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202101.xlsx
+++ b/HP/zj/202101.xlsx
@@ -161,13 +161,13 @@
     <t>HP打印机更换显影</t>
   </si>
   <si>
-    <t>CIP_MMDC800600</t>
+    <t>BS3459908029</t>
   </si>
   <si>
     <t>2021.01.27</t>
   </si>
   <si>
-    <t>公司-化州中垌镇高峰汉堂山</t>
+    <t>公司-化州中垌镇高峰汉堂山-公司</t>
   </si>
   <si>
     <t>余国丽</t>
@@ -176,7 +176,7 @@
     <t>76*2</t>
   </si>
   <si>
-    <t>HP打印机更换墨盒</t>
+    <t>HP打印机，用户加错墨水。不保修。</t>
   </si>
   <si>
     <t>、</t>
@@ -1633,7 +1633,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -1882,9 +1882,9 @@
         <v>14</v>
       </c>
       <c r="H13" s="11">
-        <v>152</v>
-      </c>
-      <c r="I13" s="11" t="s">
+        <v>152.0</v>
+      </c>
+      <c r="I13" s="117" t="s">
         <v>54</v>
       </c>
     </row>

--- a/HP/zj/202101.xlsx
+++ b/HP/zj/202101.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>2021年01月份旅差费</t>
   </si>
@@ -177,6 +177,24 @@
   </si>
   <si>
     <t>HP打印机，用户加错墨水。不保修。</t>
+  </si>
+  <si>
+    <t>0056485</t>
+  </si>
+  <si>
+    <t>2021.01.29上午</t>
+  </si>
+  <si>
+    <t>公司-水东七径镇-公司</t>
+  </si>
+  <si>
+    <t>罗女士</t>
+  </si>
+  <si>
+    <t>20*2</t>
+  </si>
+  <si>
+    <t>海尔浴霸不通电，检查发现插座烧坏，上门更换电线，插痤。</t>
   </si>
   <si>
     <t>、</t>
@@ -201,7 +219,7 @@
     <numFmt numFmtId="184" formatCode="@"/>
     <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="38">
+  <fonts count="37" x14ac:knownFonts="37">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -429,11 +447,6 @@
     <font>
       <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
@@ -1270,7 +1283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1610,8 +1623,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1632,8 +1648,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1884,19 +1900,35 @@
       <c r="H13" s="11">
         <v>152.0</v>
       </c>
-      <c r="I13" s="117" t="s">
+      <c r="I13" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
+    <row r="14" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="14"/>
@@ -2000,7 +2032,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2012,11 +2044,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202101.xlsx
+++ b/HP/zj/202101.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>2021年01月份旅差费</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t>海尔浴霸不通电，检查发现插座烧坏，上门更换电线，插痤。</t>
+  </si>
+  <si>
+    <t>2021.01.30上午</t>
+  </si>
+  <si>
+    <t>小豪（微信）</t>
+  </si>
+  <si>
+    <t>安装海尔智能马桶盖</t>
+  </si>
+  <si>
+    <t>1621012373429</t>
+  </si>
+  <si>
+    <t>2021.01.30下午</t>
+  </si>
+  <si>
+    <t>宁美国度，更换组装机内存;SSD。</t>
   </si>
   <si>
     <t>、</t>
@@ -219,7 +237,7 @@
     <numFmt numFmtId="184" formatCode="@"/>
     <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="37">
+  <fonts count="38" x14ac:knownFonts="38">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -455,6 +473,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -836,7 +859,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1142,6 +1165,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1277,13 +1315,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1479,6 +1562,9 @@
     <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,10 +1577,10 @@
     <xf numFmtId="0" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1503,34 +1589,34 @@
     <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" applyFont="1" fillId="36" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" applyFont="1" fillId="38" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="36" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="38" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
@@ -1623,11 +1709,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1649,7 +1747,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1905,7 +2003,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="69" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -1931,24 +2029,56 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
+      <c r="B15" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11">
+        <v>38</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11">
+        <v>72</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
@@ -2032,7 +2162,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2044,11 +2174,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>550</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
